--- a/报告结果/控制变量描述.xlsx
+++ b/报告结果/控制变量描述.xlsx
@@ -14,24 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>year</t>
   </si>
   <si>
-    <t>占比</t>
-  </si>
-  <si>
-    <t>医保</t>
-  </si>
-  <si>
-    <t>个人卫生支出占比</t>
-  </si>
-  <si>
-    <t>老头</t>
+    <t>人均GDP增长率</t>
+  </si>
+  <si>
+    <t>人口自然增长率加一</t>
   </si>
   <si>
     <t>政府卫生支出占比</t>
+  </si>
+  <si>
+    <t>变异系数</t>
   </si>
   <si>
     <t>count</t>
@@ -413,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,13 +432,10 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -458,169 +452,145 @@
       <c r="F2">
         <v>10</v>
       </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>2017.5</v>
       </c>
       <c r="C3">
-        <v>0.08049961625445394</v>
+        <v>0.0801755058</v>
       </c>
       <c r="D3">
-        <v>0.082165214696882</v>
+        <v>1.379</v>
       </c>
       <c r="E3">
-        <v>0.291789485814696</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="F3">
-        <v>0.11955628857303</v>
-      </c>
-      <c r="G3">
-        <v>0.07199999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.4447182157278549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>3.027650354097492</v>
       </c>
       <c r="C4">
-        <v>0.007223994868684829</v>
+        <v>0.0303153047129758</v>
       </c>
       <c r="D4">
-        <v>0.01480131793665615</v>
+        <v>0.2618502540681517</v>
       </c>
       <c r="E4">
-        <v>0.02144854467712501</v>
+        <v>0.00632455532033676</v>
       </c>
       <c r="F4">
-        <v>0.01781420587992122</v>
-      </c>
-      <c r="G4">
-        <v>0.00632455532033676</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.009522508750742004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>2013</v>
       </c>
       <c r="C5">
-        <v>0.0689918610632054</v>
+        <v>0.0249788</v>
       </c>
       <c r="D5">
-        <v>0.06628271342390001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E5">
-        <v>0.2688575510659</v>
+        <v>0.06</v>
       </c>
       <c r="F5">
-        <v>0.0969969135351</v>
-      </c>
-      <c r="G5">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.424161674244903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>2015.25</v>
       </c>
       <c r="C6">
-        <v>0.07468862269724699</v>
+        <v>0.06546641275000001</v>
       </c>
       <c r="D6">
-        <v>0.0700380796785325</v>
+        <v>1.195</v>
       </c>
       <c r="E6">
-        <v>0.27831136893824</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F6">
-        <v>0.10574865239434</v>
-      </c>
-      <c r="G6">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.44132381685847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>2017.5</v>
       </c>
       <c r="C7">
-        <v>0.0820441818579179</v>
+        <v>0.07792391700000001</v>
       </c>
       <c r="D7">
-        <v>0.08161550038189999</v>
+        <v>1.435</v>
       </c>
       <c r="E7">
-        <v>0.286886612013695</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F7">
-        <v>0.11649774456744</v>
-      </c>
-      <c r="G7">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.4448593359073265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>2019.75</v>
       </c>
       <c r="C8">
-        <v>0.08677153207470525</v>
+        <v>0.09819340825</v>
       </c>
       <c r="D8">
-        <v>0.08738972765888001</v>
+        <v>1.5825</v>
       </c>
       <c r="E8">
-        <v>0.291462632887155</v>
+        <v>0.0775</v>
       </c>
       <c r="F8">
-        <v>0.1327494971893825</v>
-      </c>
-      <c r="G8">
-        <v>0.0775</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.452398534795141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>2022</v>
       </c>
       <c r="C9">
-        <v>0.0882373404951087</v>
+        <v>0.132842441</v>
       </c>
       <c r="D9">
-        <v>0.1156132656325</v>
+        <v>1.67</v>
       </c>
       <c r="E9">
-        <v>0.33879697515042</v>
+        <v>0.08</v>
       </c>
       <c r="F9">
-        <v>0.14859571453869</v>
-      </c>
-      <c r="G9">
-        <v>0.08</v>
+        <v>0.45621401121724</v>
       </c>
     </row>
   </sheetData>
